--- a/Import Data/14x135.xlsx
+++ b/Import Data/14x135.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe1ca5d0fde44768/Documents/UCSD/dbf-propulsions/Import Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\dbf-propulsions\Import Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E405675A-3C21-4318-AC35-D3473B6EB3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01896870-58C2-4D0E-8404-F998AC62629B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8424" yWindow="2892" windowWidth="20736" windowHeight="10440" xr2:uid="{1F9B4765-E20D-4BA0-8F65-3FE05DE27AE1}"/>
+    <workbookView xWindow="20355" yWindow="4320" windowWidth="14130" windowHeight="14790" xr2:uid="{1F9B4765-E20D-4BA0-8F65-3FE05DE27AE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="46">
   <si>
     <t>14x13.5</t>
   </si>
@@ -196,12 +174,6 @@
   </si>
   <si>
     <t>(Lbf)</t>
-  </si>
-  <si>
-    <t>1.11-NaN</t>
-  </si>
-  <si>
-    <t>1.15-NaN</t>
   </si>
 </sst>
 </file>
@@ -556,13 +528,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E49EB3-8A18-4130-B324-3F713DDC9F6D}">
   <dimension ref="A1:I528"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B525" sqref="B525"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +545,7 @@
         <v>41994</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -602,12 +574,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -618,7 +590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -641,7 +613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -664,7 +636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -672,7 +644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -689,7 +661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -703,7 +675,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -729,7 +701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -749,7 +721,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -775,7 +747,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.5</v>
       </c>
@@ -801,7 +773,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.1000000000000001</v>
       </c>
@@ -827,7 +799,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.6</v>
       </c>
@@ -853,7 +825,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2.2000000000000002</v>
       </c>
@@ -879,7 +851,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2.7</v>
       </c>
@@ -905,7 +877,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3.3</v>
       </c>
@@ -931,7 +903,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3.8</v>
       </c>
@@ -957,7 +929,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4.4000000000000004</v>
       </c>
@@ -983,7 +955,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4.9000000000000004</v>
       </c>
@@ -1009,7 +981,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5.5</v>
       </c>
@@ -1035,7 +1007,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6</v>
       </c>
@@ -1061,7 +1033,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6.5</v>
       </c>
@@ -1087,7 +1059,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7.1</v>
       </c>
@@ -1113,7 +1085,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7.6</v>
       </c>
@@ -1139,7 +1111,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8.1999999999999993</v>
       </c>
@@ -1165,7 +1137,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>8.6999999999999993</v>
       </c>
@@ -1191,7 +1163,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9.3000000000000007</v>
       </c>
@@ -1217,7 +1189,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9.8000000000000007</v>
       </c>
@@ -1243,7 +1215,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10.4</v>
       </c>
@@ -1269,7 +1241,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10.9</v>
       </c>
@@ -1295,7 +1267,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11.5</v>
       </c>
@@ -1321,7 +1293,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>12</v>
       </c>
@@ -1347,7 +1319,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12.5</v>
       </c>
@@ -1373,7 +1345,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>13.1</v>
       </c>
@@ -1399,7 +1371,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>13.6</v>
       </c>
@@ -1425,7 +1397,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>14.2</v>
       </c>
@@ -1451,7 +1423,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>14.7</v>
       </c>
@@ -1477,7 +1449,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>15.3</v>
       </c>
@@ -1503,7 +1475,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>15.8</v>
       </c>
@@ -1529,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -1543,7 +1515,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1569,7 +1541,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -1589,7 +1561,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -1615,7 +1587,7 @@
         <v>0.54800000000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1.1000000000000001</v>
       </c>
@@ -1641,7 +1613,7 @@
         <v>0.54900000000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2.2000000000000002</v>
       </c>
@@ -1667,7 +1639,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3.3</v>
       </c>
@@ -1693,7 +1665,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4.4000000000000004</v>
       </c>
@@ -1719,7 +1691,7 @@
         <v>0.55200000000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5.4</v>
       </c>
@@ -1745,7 +1717,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6.5</v>
       </c>
@@ -1771,7 +1743,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7.6</v>
       </c>
@@ -1797,7 +1769,7 @@
         <v>0.55400000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>8.6999999999999993</v>
       </c>
@@ -1823,7 +1795,7 @@
         <v>0.55400000000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>9.8000000000000007</v>
       </c>
@@ -1849,7 +1821,7 @@
         <v>0.55400000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>10.9</v>
       </c>
@@ -1875,7 +1847,7 @@
         <v>0.55400000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>12</v>
       </c>
@@ -1901,7 +1873,7 @@
         <v>0.55200000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>13.1</v>
       </c>
@@ -1927,7 +1899,7 @@
         <v>0.54800000000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>14.2</v>
       </c>
@@ -1953,7 +1925,7 @@
         <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>15.3</v>
       </c>
@@ -1979,7 +1951,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>16.3</v>
       </c>
@@ -2005,7 +1977,7 @@
         <v>0.50800000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>17.399999999999999</v>
       </c>
@@ -2031,7 +2003,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>18.5</v>
       </c>
@@ -2057,7 +2029,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>19.600000000000001</v>
       </c>
@@ -2083,7 +2055,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>20.7</v>
       </c>
@@ -2109,7 +2081,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>21.8</v>
       </c>
@@ -2135,7 +2107,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>22.9</v>
       </c>
@@ -2161,7 +2133,7 @@
         <v>0.309</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>24</v>
       </c>
@@ -2187,7 +2159,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>25.1</v>
       </c>
@@ -2213,7 +2185,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>26.1</v>
       </c>
@@ -2239,7 +2211,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>27.2</v>
       </c>
@@ -2265,7 +2237,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>28.3</v>
       </c>
@@ -2291,7 +2263,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>29.4</v>
       </c>
@@ -2317,7 +2289,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>30.5</v>
       </c>
@@ -2343,7 +2315,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>31.6</v>
       </c>
@@ -2369,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -2383,7 +2355,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -2409,7 +2381,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>40</v>
       </c>
@@ -2429,7 +2401,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0</v>
       </c>
@@ -2455,7 +2427,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1.6</v>
       </c>
@@ -2481,7 +2453,7 @@
         <v>1.2310000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3.3</v>
       </c>
@@ -2507,7 +2479,7 @@
         <v>1.2330000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4.9000000000000004</v>
       </c>
@@ -2533,7 +2505,7 @@
         <v>1.2350000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>6.5</v>
       </c>
@@ -2559,7 +2531,7 @@
         <v>1.2370000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>8.1999999999999993</v>
       </c>
@@ -2585,7 +2557,7 @@
         <v>1.2390000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>9.8000000000000007</v>
       </c>
@@ -2611,7 +2583,7 @@
         <v>1.2410000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>11.4</v>
       </c>
@@ -2637,7 +2609,7 @@
         <v>1.242</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>13.1</v>
       </c>
@@ -2663,7 +2635,7 @@
         <v>1.2430000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>14.7</v>
       </c>
@@ -2689,7 +2661,7 @@
         <v>1.2430000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>16.3</v>
       </c>
@@ -2715,7 +2687,7 @@
         <v>1.242</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>17.899999999999999</v>
       </c>
@@ -2741,7 +2713,7 @@
         <v>1.238</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>19.600000000000001</v>
       </c>
@@ -2767,7 +2739,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>21.2</v>
       </c>
@@ -2793,7 +2765,7 @@
         <v>1.2130000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>22.8</v>
       </c>
@@ -2819,7 +2791,7 @@
         <v>1.1839999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>24.5</v>
       </c>
@@ -2845,7 +2817,7 @@
         <v>1.1439999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>26.1</v>
       </c>
@@ -2871,7 +2843,7 @@
         <v>1.0840000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>27.7</v>
       </c>
@@ -2897,7 +2869,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>29.4</v>
       </c>
@@ -2923,7 +2895,7 @@
         <v>0.93300000000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>31</v>
       </c>
@@ -2949,7 +2921,7 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>32.6</v>
       </c>
@@ -2975,7 +2947,7 @@
         <v>0.77700000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>34.299999999999997</v>
       </c>
@@ -3001,7 +2973,7 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>35.9</v>
       </c>
@@ -3027,7 +2999,7 @@
         <v>0.61599999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>37.5</v>
       </c>
@@ -3053,7 +3025,7 @@
         <v>0.53300000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>39.200000000000003</v>
       </c>
@@ -3079,7 +3051,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>40.799999999999997</v>
       </c>
@@ -3105,7 +3077,7 @@
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>42.4</v>
       </c>
@@ -3131,7 +3103,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>44.1</v>
       </c>
@@ -3157,7 +3129,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>45.7</v>
       </c>
@@ -3183,7 +3155,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>47.3</v>
       </c>
@@ -3209,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -3223,7 +3195,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -3249,7 +3221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -3269,7 +3241,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3295,7 +3267,7 @@
         <v>2.1760000000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2.2000000000000002</v>
       </c>
@@ -3321,7 +3293,7 @@
         <v>2.1789999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4.3</v>
       </c>
@@ -3347,7 +3319,7 @@
         <v>2.1819999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>6.5</v>
       </c>
@@ -3373,7 +3345,7 @@
         <v>2.1850000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>8.6999999999999993</v>
       </c>
@@ -3399,7 +3371,7 @@
         <v>2.1890000000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>10.9</v>
       </c>
@@ -3425,7 +3397,7 @@
         <v>2.1920000000000002</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>13</v>
       </c>
@@ -3451,7 +3423,7 @@
         <v>2.1960000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>15.2</v>
       </c>
@@ -3477,7 +3449,7 @@
         <v>2.1989999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>17.399999999999999</v>
       </c>
@@ -3503,7 +3475,7 @@
         <v>2.2010000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>19.600000000000001</v>
       </c>
@@ -3529,7 +3501,7 @@
         <v>2.202</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>21.7</v>
       </c>
@@ -3555,7 +3527,7 @@
         <v>2.2010000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>23.9</v>
       </c>
@@ -3581,7 +3553,7 @@
         <v>2.1960000000000002</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>26.1</v>
       </c>
@@ -3607,7 +3579,7 @@
         <v>2.1840000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>28.3</v>
       </c>
@@ -3633,7 +3605,7 @@
         <v>2.1560000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>30.4</v>
       </c>
@@ -3659,7 +3631,7 @@
         <v>2.1080000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>32.6</v>
       </c>
@@ -3685,7 +3657,7 @@
         <v>2.0390000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>34.799999999999997</v>
       </c>
@@ -3711,7 +3683,7 @@
         <v>1.9359999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>37</v>
       </c>
@@ -3737,7 +3709,7 @@
         <v>1.802</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>39.1</v>
       </c>
@@ -3763,7 +3735,7 @@
         <v>1.667</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>41.3</v>
       </c>
@@ -3789,7 +3761,7 @@
         <v>1.528</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>43.5</v>
       </c>
@@ -3815,7 +3787,7 @@
         <v>1.387</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>45.7</v>
       </c>
@@ -3841,7 +3813,7 @@
         <v>1.2430000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>47.8</v>
       </c>
@@ -3867,7 +3839,7 @@
         <v>1.097</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>50</v>
       </c>
@@ -3893,7 +3865,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>52.2</v>
       </c>
@@ -3919,7 +3891,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>54.4</v>
       </c>
@@ -3945,7 +3917,7 @@
         <v>0.64200000000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>56.5</v>
       </c>
@@ -3971,7 +3943,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>58.7</v>
       </c>
@@ -3997,7 +3969,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>60.9</v>
       </c>
@@ -4023,7 +3995,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>63.1</v>
       </c>
@@ -4049,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>30</v>
       </c>
@@ -4063,7 +4035,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -4089,7 +4061,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>40</v>
       </c>
@@ -4109,7 +4081,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0</v>
       </c>
@@ -4135,7 +4107,7 @@
         <v>3.5449999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2.7</v>
       </c>
@@ -4161,7 +4133,7 @@
         <v>3.552</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>5.4</v>
       </c>
@@ -4187,7 +4159,7 @@
         <v>3.5579999999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>8.1999999999999993</v>
       </c>
@@ -4213,7 +4185,7 @@
         <v>3.5649999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>10.9</v>
       </c>
@@ -4239,7 +4211,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>13.6</v>
       </c>
@@ -4265,7 +4237,7 @@
         <v>3.5739999999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>16.3</v>
       </c>
@@ -4291,7 +4263,7 @@
         <v>3.577</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>19</v>
       </c>
@@ -4317,7 +4289,7 @@
         <v>3.577</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>21.7</v>
       </c>
@@ -4343,7 +4315,7 @@
         <v>3.5739999999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>24.5</v>
       </c>
@@ -4369,7 +4341,7 @@
         <v>3.5670000000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>27.2</v>
       </c>
@@ -4395,7 +4367,7 @@
         <v>3.5539999999999998</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>29.9</v>
       </c>
@@ -4421,7 +4393,7 @@
         <v>3.5329999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>32.6</v>
       </c>
@@ -4447,7 +4419,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>35.299999999999997</v>
       </c>
@@ -4473,7 +4445,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>38</v>
       </c>
@@ -4499,7 +4471,7 @@
         <v>3.3479999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>40.799999999999997</v>
       </c>
@@ -4525,7 +4497,7 @@
         <v>3.222</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>43.5</v>
       </c>
@@ -4551,7 +4523,7 @@
         <v>3.048</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>46.2</v>
       </c>
@@ -4577,7 +4549,7 @@
         <v>2.8330000000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>48.9</v>
       </c>
@@ -4603,7 +4575,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>51.6</v>
       </c>
@@ -4629,7 +4601,7 @@
         <v>2.4020000000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>54.4</v>
       </c>
@@ -4655,7 +4627,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>57.1</v>
       </c>
@@ -4681,7 +4653,7 @@
         <v>1.954</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>59.8</v>
       </c>
@@ -4707,7 +4679,7 @@
         <v>1.724</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>62.5</v>
       </c>
@@ -4733,7 +4705,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>65.2</v>
       </c>
@@ -4759,7 +4731,7 @@
         <v>1.2509999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>67.900000000000006</v>
       </c>
@@ -4785,7 +4757,7 @@
         <v>1.008</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>70.7</v>
       </c>
@@ -4811,7 +4783,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>73.400000000000006</v>
       </c>
@@ -4837,7 +4809,7 @@
         <v>0.51100000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>76.099999999999994</v>
       </c>
@@ -4863,7 +4835,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>78.8</v>
       </c>
@@ -4889,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>30</v>
       </c>
@@ -4903,7 +4875,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>26</v>
       </c>
@@ -4929,7 +4901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -4949,7 +4921,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>0</v>
       </c>
@@ -4975,7 +4947,7 @@
         <v>5.3120000000000003</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>3.3</v>
       </c>
@@ -5001,7 +4973,7 @@
         <v>5.3239999999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>6.5</v>
       </c>
@@ -5027,7 +4999,7 @@
         <v>5.3360000000000003</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>9.8000000000000007</v>
       </c>
@@ -5053,7 +5025,7 @@
         <v>5.3460000000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>13</v>
       </c>
@@ -5079,7 +5051,7 @@
         <v>5.3529999999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>16.3</v>
       </c>
@@ -5105,7 +5077,7 @@
         <v>5.3559999999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>19.600000000000001</v>
       </c>
@@ -5131,7 +5103,7 @@
         <v>5.3540000000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>22.8</v>
       </c>
@@ -5157,7 +5129,7 @@
         <v>5.3470000000000004</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>26.1</v>
       </c>
@@ -5183,7 +5155,7 @@
         <v>5.3330000000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>29.4</v>
       </c>
@@ -5209,7 +5181,7 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>32.6</v>
       </c>
@@ -5235,7 +5207,7 @@
         <v>5.2759999999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>35.9</v>
       </c>
@@ -5261,7 +5233,7 @@
         <v>5.2290000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>39.1</v>
       </c>
@@ -5287,7 +5259,7 @@
         <v>5.1630000000000003</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>42.4</v>
       </c>
@@ -5313,7 +5285,7 @@
         <v>5.0590000000000002</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>45.7</v>
       </c>
@@ -5339,7 +5311,7 @@
         <v>4.9020000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>48.9</v>
       </c>
@@ -5365,7 +5337,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>52.2</v>
       </c>
@@ -5391,7 +5363,7 @@
         <v>4.4329999999999998</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>55.4</v>
       </c>
@@ -5417,7 +5389,7 @@
         <v>4.1120000000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>58.7</v>
       </c>
@@ -5443,7 +5415,7 @@
         <v>3.8029999999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>62</v>
       </c>
@@ -5469,7 +5441,7 @@
         <v>3.488</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>65.2</v>
       </c>
@@ -5495,7 +5467,7 @@
         <v>3.1659999999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>68.5</v>
       </c>
@@ -5521,7 +5493,7 @@
         <v>2.8370000000000002</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>71.7</v>
       </c>
@@ -5547,7 +5519,7 @@
         <v>2.5030000000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>75</v>
       </c>
@@ -5573,7 +5545,7 @@
         <v>2.1629999999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>78.3</v>
       </c>
@@ -5599,7 +5571,7 @@
         <v>1.8149999999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>81.5</v>
       </c>
@@ -5625,7 +5597,7 @@
         <v>1.462</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>84.8</v>
       </c>
@@ -5651,7 +5623,7 @@
         <v>1.103</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>88.1</v>
       </c>
@@ -5677,7 +5649,7 @@
         <v>0.73899999999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>91.3</v>
       </c>
@@ -5703,7 +5675,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>94.6</v>
       </c>
@@ -5729,7 +5701,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -5743,7 +5715,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>26</v>
       </c>
@@ -5769,7 +5741,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>40</v>
       </c>
@@ -5789,7 +5761,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>0</v>
       </c>
@@ -5815,7 +5787,7 @@
         <v>7.4809999999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>3.8</v>
       </c>
@@ -5841,7 +5813,7 @@
         <v>7.5030000000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>7.6</v>
       </c>
@@ -5867,7 +5839,7 @@
         <v>7.5220000000000002</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>11.4</v>
       </c>
@@ -5893,7 +5865,7 @@
         <v>7.5359999999999996</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>15.2</v>
       </c>
@@ -5919,7 +5891,7 @@
         <v>7.5449999999999999</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>19</v>
       </c>
@@ -5945,7 +5917,7 @@
         <v>7.5460000000000003</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>22.8</v>
       </c>
@@ -5971,7 +5943,7 @@
         <v>7.5389999999999997</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>26.6</v>
       </c>
@@ -5997,7 +5969,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>30.4</v>
       </c>
@@ -6023,7 +5995,7 @@
         <v>7.4889999999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>34.200000000000003</v>
       </c>
@@ -6049,7 +6021,7 @@
         <v>7.444</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>38</v>
       </c>
@@ -6075,7 +6047,7 @@
         <v>7.38</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>41.9</v>
       </c>
@@ -6101,7 +6073,7 @@
         <v>7.2960000000000003</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>45.7</v>
       </c>
@@ -6127,7 +6099,7 @@
         <v>7.1849999999999996</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>49.5</v>
       </c>
@@ -6153,7 +6125,7 @@
         <v>7.0289999999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>53.3</v>
       </c>
@@ -6179,7 +6151,7 @@
         <v>6.7949999999999999</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>57.1</v>
       </c>
@@ -6205,7 +6177,7 @@
         <v>6.4909999999999997</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>60.9</v>
       </c>
@@ -6231,7 +6203,7 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>64.7</v>
       </c>
@@ -6257,7 +6229,7 @@
         <v>5.657</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>68.5</v>
       </c>
@@ -6283,7 +6255,7 @@
         <v>5.2320000000000002</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>72.3</v>
       </c>
@@ -6309,7 +6281,7 @@
         <v>4.798</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>76.099999999999994</v>
       </c>
@@ -6335,7 +6307,7 @@
         <v>4.3550000000000004</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>79.900000000000006</v>
       </c>
@@ -6361,7 +6333,7 @@
         <v>3.903</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>83.7</v>
       </c>
@@ -6387,7 +6359,7 @@
         <v>3.4420000000000002</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>87.5</v>
       </c>
@@ -6413,7 +6385,7 @@
         <v>2.9729999999999999</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>91.3</v>
       </c>
@@ -6439,7 +6411,7 @@
         <v>2.496</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>95.1</v>
       </c>
@@ -6465,7 +6437,7 @@
         <v>2.0110000000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>98.9</v>
       </c>
@@ -6491,7 +6463,7 @@
         <v>1.516</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>102.7</v>
       </c>
@@ -6517,7 +6489,7 @@
         <v>1.018</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>106.5</v>
       </c>
@@ -6543,7 +6515,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>110.3</v>
       </c>
@@ -6569,7 +6541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>30</v>
       </c>
@@ -6583,7 +6555,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>26</v>
       </c>
@@ -6609,7 +6581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>40</v>
       </c>
@@ -6629,7 +6601,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>0</v>
       </c>
@@ -6655,7 +6627,7 @@
         <v>10.079000000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>4.3</v>
       </c>
@@ -6681,7 +6653,7 @@
         <v>10.112</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>8.6999999999999993</v>
       </c>
@@ -6707,7 +6679,7 @@
         <v>10.141</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>13</v>
       </c>
@@ -6733,7 +6705,7 @@
         <v>10.162000000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>17.399999999999999</v>
       </c>
@@ -6759,7 +6731,7 @@
         <v>10.173</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>21.7</v>
       </c>
@@ -6785,7 +6757,7 @@
         <v>10.172000000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>26.1</v>
       </c>
@@ -6811,7 +6783,7 @@
         <v>10.156000000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>30.4</v>
       </c>
@@ -6837,7 +6809,7 @@
         <v>10.122999999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>34.799999999999997</v>
       </c>
@@ -6863,7 +6835,7 @@
         <v>10.07</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>39.1</v>
       </c>
@@ -6889,7 +6861,7 @@
         <v>9.9949999999999992</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>43.5</v>
       </c>
@@ -6915,7 +6887,7 @@
         <v>9.8940000000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>47.8</v>
       </c>
@@ -6941,7 +6913,7 @@
         <v>9.7620000000000005</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>52.2</v>
       </c>
@@ -6967,7 +6939,7 @@
         <v>9.593</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>56.5</v>
       </c>
@@ -6993,7 +6965,7 @@
         <v>9.3710000000000004</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>60.9</v>
       </c>
@@ -7019,7 +6991,7 @@
         <v>9.0470000000000006</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>65.2</v>
       </c>
@@ -7045,7 +7017,7 @@
         <v>8.6199999999999992</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>69.599999999999994</v>
       </c>
@@ -7071,7 +7043,7 @@
         <v>8.1029999999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>73.900000000000006</v>
       </c>
@@ -7097,7 +7069,7 @@
         <v>7.4880000000000004</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>78.3</v>
       </c>
@@ -7123,7 +7095,7 @@
         <v>6.9260000000000002</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>82.6</v>
       </c>
@@ -7149,7 +7121,7 @@
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>86.9</v>
       </c>
@@ -7175,7 +7147,7 @@
         <v>5.7670000000000003</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>91.3</v>
       </c>
@@ -7201,7 +7173,7 @@
         <v>5.1689999999999996</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>95.6</v>
       </c>
@@ -7227,7 +7199,7 @@
         <v>4.5599999999999996</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>100</v>
       </c>
@@ -7253,7 +7225,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>104.3</v>
       </c>
@@ -7279,7 +7251,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>108.7</v>
       </c>
@@ -7305,7 +7277,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>113</v>
       </c>
@@ -7331,7 +7303,7 @@
         <v>2.016</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>117.4</v>
       </c>
@@ -7357,7 +7329,7 @@
         <v>1.353</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>121.7</v>
       </c>
@@ -7383,7 +7355,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>126.1</v>
       </c>
@@ -7409,7 +7381,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -7423,7 +7395,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>26</v>
       </c>
@@ -7449,7 +7421,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>40</v>
       </c>
@@ -7469,7 +7441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0</v>
       </c>
@@ -7495,7 +7467,7 @@
         <v>12.439</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>4.9000000000000004</v>
       </c>
@@ -7521,7 +7493,7 @@
         <v>12.476000000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>9.8000000000000007</v>
       </c>
@@ -7547,7 +7519,7 @@
         <v>12.506</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>14.7</v>
       </c>
@@ -7573,7 +7545,7 @@
         <v>12.526</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>19.600000000000001</v>
       </c>
@@ -7599,7 +7571,7 @@
         <v>12.535</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>24.5</v>
       </c>
@@ -7625,7 +7597,7 @@
         <v>12.53</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>29.4</v>
       </c>
@@ -7651,7 +7623,7 @@
         <v>12.510999999999999</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>34.299999999999997</v>
       </c>
@@ -7677,7 +7649,7 @@
         <v>12.474</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>39.200000000000003</v>
       </c>
@@ -7703,7 +7675,7 @@
         <v>12.416</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>44.1</v>
       </c>
@@ -7729,7 +7701,7 @@
         <v>12.337999999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>49</v>
       </c>
@@ -7755,7 +7727,7 @@
         <v>12.236000000000001</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>53.9</v>
       </c>
@@ -7781,7 +7753,7 @@
         <v>12.106</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>58.8</v>
       </c>
@@ -7807,7 +7779,7 @@
         <v>11.944000000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>63.7</v>
       </c>
@@ -7833,7 +7805,7 @@
         <v>11.738</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>68.599999999999994</v>
       </c>
@@ -7859,7 +7831,7 @@
         <v>11.439</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>73.5</v>
       </c>
@@ -7885,7 +7857,7 @@
         <v>10.981999999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>78.400000000000006</v>
       </c>
@@ -7911,7 +7883,7 @@
         <v>10.391</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>83.2</v>
       </c>
@@ -7937,7 +7909,7 @@
         <v>9.6199999999999992</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>88.1</v>
       </c>
@@ -7963,7 +7935,7 @@
         <v>8.8940000000000001</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>93</v>
       </c>
@@ -7989,7 +7961,7 @@
         <v>8.1539999999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>97.9</v>
       </c>
@@ -8015,7 +7987,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>102.8</v>
       </c>
@@ -8041,7 +8013,7 @@
         <v>6.6310000000000002</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>107.7</v>
       </c>
@@ -8067,7 +8039,7 @@
         <v>5.8479999999999999</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>112.6</v>
       </c>
@@ -8093,7 +8065,7 @@
         <v>5.0490000000000004</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>117.5</v>
       </c>
@@ -8119,7 +8091,7 @@
         <v>4.2370000000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>122.4</v>
       </c>
@@ -8145,7 +8117,7 @@
         <v>3.4119999999999999</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>127.3</v>
       </c>
@@ -8171,7 +8143,7 @@
         <v>2.5680000000000001</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>132.19999999999999</v>
       </c>
@@ -8197,7 +8169,7 @@
         <v>1.7150000000000001</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>137.1</v>
       </c>
@@ -8223,7 +8195,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>142</v>
       </c>
@@ -8249,7 +8221,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>30</v>
       </c>
@@ -8263,7 +8235,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>26</v>
       </c>
@@ -8289,7 +8261,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>40</v>
       </c>
@@ -8309,7 +8281,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>0</v>
       </c>
@@ -8335,7 +8307,7 @@
         <v>14.779</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>5.4</v>
       </c>
@@ -8361,7 +8333,7 @@
         <v>14.817</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>10.9</v>
       </c>
@@ -8387,7 +8359,7 @@
         <v>14.847</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>16.3</v>
       </c>
@@ -8413,7 +8385,7 @@
         <v>14.871</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>21.7</v>
       </c>
@@ -8439,7 +8411,7 @@
         <v>14.885</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>27.2</v>
       </c>
@@ -8465,7 +8437,7 @@
         <v>14.888999999999999</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>32.6</v>
       </c>
@@ -8491,7 +8463,7 @@
         <v>14.881</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>38</v>
       </c>
@@ -8517,7 +8489,7 @@
         <v>14.861000000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>43.5</v>
       </c>
@@ -8543,7 +8515,7 @@
         <v>14.824999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>48.9</v>
       </c>
@@ -8569,7 +8541,7 @@
         <v>14.772</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>54.3</v>
       </c>
@@ -8595,7 +8567,7 @@
         <v>14.701000000000001</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>59.8</v>
       </c>
@@ -8621,7 +8593,7 @@
         <v>14.609</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>65.2</v>
       </c>
@@ -8647,7 +8619,7 @@
         <v>14.49</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>70.7</v>
       </c>
@@ -8673,7 +8645,7 @@
         <v>14.337</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>76.099999999999994</v>
       </c>
@@ -8699,7 +8671,7 @@
         <v>14.117000000000001</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>81.5</v>
       </c>
@@ -8725,7 +8697,7 @@
         <v>13.693</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>87</v>
       </c>
@@ -8751,7 +8723,7 @@
         <v>13.052</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>92.4</v>
       </c>
@@ -8777,7 +8749,7 @@
         <v>12.131</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>97.8</v>
       </c>
@@ -8803,7 +8775,7 @@
         <v>11.217000000000001</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>103.3</v>
       </c>
@@ -8829,7 +8801,7 @@
         <v>10.288</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>108.7</v>
       </c>
@@ -8855,7 +8827,7 @@
         <v>9.3420000000000005</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>114.1</v>
       </c>
@@ -8881,7 +8853,7 @@
         <v>8.3789999999999996</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>119.6</v>
       </c>
@@ -8907,7 +8879,7 @@
         <v>7.3959999999999999</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>125</v>
       </c>
@@ -8933,7 +8905,7 @@
         <v>6.3929999999999998</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>130.4</v>
       </c>
@@ -8959,7 +8931,7 @@
         <v>5.3719999999999999</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>135.9</v>
       </c>
@@ -8985,7 +8957,7 @@
         <v>4.335</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>141.30000000000001</v>
       </c>
@@ -9011,7 +8983,7 @@
         <v>3.2789999999999999</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>146.69999999999999</v>
       </c>
@@ -9037,7 +9009,7 @@
         <v>2.2080000000000002</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>152.19999999999999</v>
       </c>
@@ -9063,7 +9035,7 @@
         <v>1.127</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>157.6</v>
       </c>
@@ -9089,7 +9061,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>30</v>
       </c>
@@ -9103,7 +9075,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>26</v>
       </c>
@@ -9129,7 +9101,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>40</v>
       </c>
@@ -9149,7 +9121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>0</v>
       </c>
@@ -9175,7 +9147,7 @@
         <v>17.204999999999998</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>6</v>
       </c>
@@ -9201,7 +9173,7 @@
         <v>17.239000000000001</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>12</v>
       </c>
@@ -9227,7 +9199,7 @@
         <v>17.268000000000001</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>17.899999999999999</v>
       </c>
@@ -9253,7 +9225,7 @@
         <v>17.292999999999999</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>23.9</v>
       </c>
@@ -9279,7 +9251,7 @@
         <v>17.312999999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>29.9</v>
       </c>
@@ -9305,7 +9277,7 @@
         <v>17.326000000000001</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>35.9</v>
       </c>
@@ -9331,7 +9303,7 @@
         <v>17.334</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>41.8</v>
       </c>
@@ -9357,7 +9329,7 @@
         <v>17.335000000000001</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>47.8</v>
       </c>
@@ -9383,7 +9355,7 @@
         <v>17.329000000000001</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>53.8</v>
       </c>
@@ -9409,7 +9381,7 @@
         <v>17.315000000000001</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>59.8</v>
       </c>
@@ -9435,7 +9407,7 @@
         <v>17.289000000000001</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>65.8</v>
       </c>
@@ -9461,7 +9433,7 @@
         <v>17.251999999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>71.7</v>
       </c>
@@ -9487,7 +9459,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>77.7</v>
       </c>
@@ -9513,7 +9485,7 @@
         <v>17.123000000000001</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>83.7</v>
       </c>
@@ -9539,7 +9511,7 @@
         <v>17.003</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>89.7</v>
       </c>
@@ -9565,7 +9537,7 @@
         <v>16.739000000000001</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>95.6</v>
       </c>
@@ -9591,7 +9563,7 @@
         <v>16.097000000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>101.6</v>
       </c>
@@ -9617,7 +9589,7 @@
         <v>15.041</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>107.6</v>
       </c>
@@ -9643,7 +9615,7 @@
         <v>13.914999999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>113.6</v>
       </c>
@@ -9669,7 +9641,7 @@
         <v>12.763999999999999</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>119.6</v>
       </c>
@@ -9695,7 +9667,7 @@
         <v>11.592000000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>125.5</v>
       </c>
@@ -9721,7 +9693,7 @@
         <v>10.403</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>131.5</v>
       </c>
@@ -9747,7 +9719,7 @@
         <v>9.1880000000000006</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>137.5</v>
       </c>
@@ -9773,7 +9745,7 @@
         <v>7.9480000000000004</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>143.5</v>
       </c>
@@ -9799,7 +9771,7 @@
         <v>6.6790000000000003</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>149.5</v>
       </c>
@@ -9825,7 +9797,7 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>155.4</v>
       </c>
@@ -9851,7 +9823,7 @@
         <v>4.08</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>161.4</v>
       </c>
@@ -9877,7 +9849,7 @@
         <v>2.7480000000000002</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>167.4</v>
       </c>
@@ -9903,7 +9875,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>173.4</v>
       </c>
@@ -9929,7 +9901,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>30</v>
       </c>
@@ -9943,7 +9915,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>26</v>
       </c>
@@ -9969,7 +9941,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>40</v>
       </c>
@@ -9989,7 +9961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>0</v>
       </c>
@@ -10015,7 +9987,7 @@
         <v>19.672000000000001</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>6.5</v>
       </c>
@@ -10041,7 +10013,7 @@
         <v>19.696999999999999</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>13</v>
       </c>
@@ -10067,7 +10039,7 @@
         <v>19.722999999999999</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>19.600000000000001</v>
       </c>
@@ -10093,7 +10065,7 @@
         <v>19.747</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>26.1</v>
       </c>
@@ -10119,7 +10091,7 @@
         <v>19.771999999999998</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>32.6</v>
       </c>
@@ -10145,7 +10117,7 @@
         <v>19.795999999999999</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>39.1</v>
       </c>
@@ -10171,7 +10143,7 @@
         <v>19.821000000000002</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>45.6</v>
       </c>
@@ -10197,7 +10169,7 @@
         <v>19.847999999999999</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>52.2</v>
       </c>
@@ -10223,7 +10195,7 @@
         <v>19.893000000000001</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>58.7</v>
       </c>
@@ -10249,7 +10221,7 @@
         <v>19.946999999999999</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>65.2</v>
       </c>
@@ -10275,7 +10247,7 @@
         <v>20.004999999999999</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>71.7</v>
       </c>
@@ -10301,7 +10273,7 @@
         <v>20.065000000000001</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>78.2</v>
       </c>
@@ -10327,7 +10299,7 @@
         <v>20.12</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>84.7</v>
       </c>
@@ -10353,7 +10325,7 @@
         <v>20.164999999999999</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>91.3</v>
       </c>
@@ -10379,7 +10351,7 @@
         <v>20.178000000000001</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>97.8</v>
       </c>
@@ -10405,7 +10377,7 @@
         <v>20.123999999999999</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>104.3</v>
       </c>
@@ -10431,7 +10403,7 @@
         <v>19.673999999999999</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>110.8</v>
       </c>
@@ -10457,7 +10429,7 @@
         <v>18.494</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>117.3</v>
       </c>
@@ -10483,7 +10455,7 @@
         <v>17.11</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>123.9</v>
       </c>
@@ -10509,7 +10481,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>130.4</v>
       </c>
@@ -10535,7 +10507,7 @@
         <v>14.260999999999999</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>136.9</v>
       </c>
@@ -10561,7 +10533,7 @@
         <v>12.808</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>143.4</v>
       </c>
@@ -10587,7 +10559,7 @@
         <v>11.318</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>149.9</v>
       </c>
@@ -10613,7 +10585,7 @@
         <v>9.8040000000000003</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>156.5</v>
       </c>
@@ -10639,7 +10611,7 @@
         <v>8.2579999999999991</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>163</v>
       </c>
@@ -10665,7 +10637,7 @@
         <v>6.6840000000000002</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>169.5</v>
       </c>
@@ -10691,7 +10663,7 @@
         <v>5.0750000000000002</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>176</v>
       </c>
@@ -10717,7 +10689,7 @@
         <v>3.4279999999999999</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>182.5</v>
       </c>
@@ -10743,7 +10715,7 @@
         <v>1.7270000000000001</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>189.1</v>
       </c>
@@ -10769,7 +10741,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>30</v>
       </c>
@@ -10783,7 +10755,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>26</v>
       </c>
@@ -10809,7 +10781,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>40</v>
       </c>
@@ -10829,7 +10801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>0</v>
       </c>
@@ -10855,7 +10827,7 @@
         <v>23.045000000000002</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>7.1</v>
       </c>
@@ -10881,7 +10853,7 @@
         <v>23.077999999999999</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>14.1</v>
       </c>
@@ -10907,7 +10879,7 @@
         <v>23.183</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>21.2</v>
       </c>
@@ -10933,7 +10905,7 @@
         <v>23.181000000000001</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>28.2</v>
       </c>
@@ -10959,7 +10931,7 @@
         <v>23.263999999999999</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>35.299999999999997</v>
       </c>
@@ -10985,7 +10957,7 @@
         <v>23.414000000000001</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>42.3</v>
       </c>
@@ -11011,7 +10983,7 @@
         <v>23.454000000000001</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>49.4</v>
       </c>
@@ -11037,7 +11009,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>56.4</v>
       </c>
@@ -11063,7 +11035,7 @@
         <v>23.55</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>63.5</v>
       </c>
@@ -11089,7 +11061,7 @@
         <v>23.602</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>70.5</v>
       </c>
@@ -11115,7 +11087,7 @@
         <v>23.66</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>77.599999999999994</v>
       </c>
@@ -11141,7 +11113,7 @@
         <v>23.724</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>84.7</v>
       </c>
@@ -11167,7 +11139,7 @@
         <v>23.788</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>91.7</v>
       </c>
@@ -11193,7 +11165,7 @@
         <v>23.853000000000002</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>98.8</v>
       </c>
@@ -11219,7 +11191,7 @@
         <v>23.914000000000001</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>105.8</v>
       </c>
@@ -11245,7 +11217,7 @@
         <v>23.954999999999998</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>112.9</v>
       </c>
@@ -11271,7 +11243,7 @@
         <v>23.954000000000001</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>119.9</v>
       </c>
@@ -11297,7 +11269,7 @@
         <v>23.140999999999998</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>127</v>
       </c>
@@ -11323,7 +11295,7 @@
         <v>21.533999999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>134</v>
       </c>
@@ -11349,7 +11321,7 @@
         <v>19.658999999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>141.1</v>
       </c>
@@ -11375,7 +11347,7 @@
         <v>17.806999999999999</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>148.19999999999999</v>
       </c>
@@ -11401,7 +11373,7 @@
         <v>15.964</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>155.19999999999999</v>
       </c>
@@ -11427,7 +11399,7 @@
         <v>14.111000000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>162.30000000000001</v>
       </c>
@@ -11453,7 +11425,7 @@
         <v>12.209</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>169.3</v>
       </c>
@@ -11479,7 +11451,7 @@
         <v>10.276</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>176.4</v>
       </c>
@@ -11505,7 +11477,7 @@
         <v>8.3149999999999995</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>183.4</v>
       </c>
@@ -11531,7 +11503,7 @@
         <v>6.3239999999999998</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>190.5</v>
       </c>
@@ -11557,7 +11529,7 @@
         <v>4.2789999999999999</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>197.5</v>
       </c>
@@ -11583,7 +11555,7 @@
         <v>2.1739999999999999</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>204.6</v>
       </c>
@@ -11609,7 +11581,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>30</v>
       </c>
@@ -11623,7 +11595,7 @@
         <v>13999</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>26</v>
       </c>
@@ -11649,7 +11621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>40</v>
       </c>
@@ -11669,7 +11641,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>0</v>
       </c>
@@ -11695,7 +11667,7 @@
         <v>27.007000000000001</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>7.6</v>
       </c>
@@ -11721,7 +11693,7 @@
         <v>27.050999999999998</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>15.2</v>
       </c>
@@ -11747,7 +11719,7 @@
         <v>27.100999999999999</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>22.9</v>
       </c>
@@ -11773,7 +11745,7 @@
         <v>27.155000000000001</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>30.5</v>
       </c>
@@ -11799,7 +11771,7 @@
         <v>27.213000000000001</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>38.1</v>
       </c>
@@ -11825,7 +11797,7 @@
         <v>27.279</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>45.7</v>
       </c>
@@ -11851,7 +11823,7 @@
         <v>27.349</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>53.3</v>
       </c>
@@ -11877,7 +11849,7 @@
         <v>27.43</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>60.9</v>
       </c>
@@ -11903,7 +11875,7 @@
         <v>27.521999999999998</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>68.599999999999994</v>
       </c>
@@ -11929,7 +11901,7 @@
         <v>27.638999999999999</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>76.2</v>
       </c>
@@ -11955,7 +11927,7 @@
         <v>27.791</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>83.8</v>
       </c>
@@ -11981,7 +11953,7 @@
         <v>27.984999999999999</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>91.4</v>
       </c>
@@ -12007,7 +11979,7 @@
         <v>28.190999999999999</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>99</v>
       </c>
@@ -12033,7 +12005,7 @@
         <v>28.228999999999999</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>106.6</v>
       </c>
@@ -12059,7 +12031,7 @@
         <v>28.215</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>114.3</v>
       </c>
@@ -12085,7 +12057,7 @@
         <v>28.024999999999999</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>121.9</v>
       </c>
@@ -12111,7 +12083,7 @@
         <v>28.07</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>129.5</v>
       </c>
@@ -12137,7 +12109,7 @@
         <v>27.661000000000001</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>137.1</v>
       </c>
@@ -12163,7 +12135,7 @@
         <v>26.285</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>144.69999999999999</v>
       </c>
@@ -12189,7 +12161,7 @@
         <v>24.736999999999998</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>152.30000000000001</v>
       </c>
@@ -12215,7 +12187,7 @@
         <v>23.030999999999999</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>160</v>
       </c>
@@ -12241,7 +12213,7 @@
         <v>20.885999999999999</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>167.6</v>
       </c>
@@ -12267,7 +12239,7 @@
         <v>18.393000000000001</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>175.2</v>
       </c>
@@ -12293,7 +12265,7 @@
         <v>15.906000000000001</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>182.8</v>
       </c>
@@ -12319,7 +12291,7 @@
         <v>13.455</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>190.4</v>
       </c>
@@ -12345,7 +12317,7 @@
         <v>11.069000000000001</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>198</v>
       </c>
@@ -12371,63 +12343,59 @@
         <v>8.4870000000000001</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>205.7</v>
       </c>
-      <c r="B526" t="s">
-        <v>46</v>
-      </c>
-      <c r="C526" t="e" cm="1">
-        <f t="array" ref="C526">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D526" t="e" cm="1">
-        <f t="array" ref="D526">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E526" t="e" cm="1">
-        <f t="array" ref="E526">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F526" t="e" cm="1">
-        <f t="array" ref="F526">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G526" t="e" cm="1">
-        <f t="array" ref="G526">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B526">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C526">
+        <v>0</v>
+      </c>
+      <c r="D526">
+        <v>0</v>
+      </c>
+      <c r="E526">
+        <v>0</v>
+      </c>
+      <c r="F526">
+        <v>0</v>
+      </c>
+      <c r="G526">
+        <v>0</v>
+      </c>
+      <c r="H526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>213.3</v>
       </c>
-      <c r="B527" t="s">
-        <v>47</v>
-      </c>
-      <c r="C527" t="e" cm="1">
-        <f t="array" ref="C527">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D527" t="e" cm="1">
-        <f t="array" ref="D527">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E527" t="e" cm="1">
-        <f t="array" ref="E527">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F527" t="e" cm="1">
-        <f t="array" ref="F527">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G527" t="e" cm="1">
-        <f t="array" ref="G527">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B527">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C527">
+        <v>0</v>
+      </c>
+      <c r="D527">
+        <v>0</v>
+      </c>
+      <c r="E527">
+        <v>0</v>
+      </c>
+      <c r="F527">
+        <v>0</v>
+      </c>
+      <c r="G527">
+        <v>0</v>
+      </c>
+      <c r="H527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>220.9</v>
       </c>
